--- a/resultados/pretratamiento-tablas-control/pretrat-alemania-elo-facil-regular.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-alemania-elo-facil-regular.xlsx
@@ -3875,10 +3875,10 @@
         <v>-3.633</v>
       </c>
       <c r="H2">
-        <v>-0.884</v>
+        <v>-0.863</v>
       </c>
       <c r="I2">
-        <v>0.378</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3904,10 +3904,10 @@
         <v>-2.404</v>
       </c>
       <c r="H3">
-        <v>-0.705</v>
+        <v>-0.736</v>
       </c>
       <c r="I3">
-        <v>0.482</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3933,10 +3933,10 @@
         <v>2.305</v>
       </c>
       <c r="H4">
-        <v>0.532</v>
+        <v>0.403</v>
       </c>
       <c r="I4">
-        <v>0.596</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3962,10 +3962,10 @@
         <v>1.181</v>
       </c>
       <c r="H5">
-        <v>0.276</v>
+        <v>0.223</v>
       </c>
       <c r="I5">
-        <v>0.783</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3991,10 +3991,10 @@
         <v>3.728</v>
       </c>
       <c r="H6">
-        <v>0.832</v>
+        <v>0.708</v>
       </c>
       <c r="I6">
-        <v>0.407</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4020,10 +4020,10 @@
         <v>-5.586</v>
       </c>
       <c r="H7">
-        <v>-1.114</v>
+        <v>-1.245</v>
       </c>
       <c r="I7">
-        <v>0.267</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4049,10 +4049,10 @@
         <v>0.835</v>
       </c>
       <c r="H8">
-        <v>0.481</v>
+        <v>0.413</v>
       </c>
       <c r="I8">
-        <v>0.631</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4078,10 +4078,10 @@
         <v>1.836</v>
       </c>
       <c r="H9">
-        <v>1.196</v>
+        <v>1.315</v>
       </c>
       <c r="I9">
-        <v>0.234</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4107,10 +4107,10 @@
         <v>-0.579</v>
       </c>
       <c r="H10">
-        <v>-0.319</v>
+        <v>-0.233</v>
       </c>
       <c r="I10">
-        <v>0.75</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4136,10 +4136,10 @@
         <v>-0.912</v>
       </c>
       <c r="H11">
-        <v>-0.489</v>
+        <v>-0.433</v>
       </c>
       <c r="I11">
-        <v>0.625</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4165,10 +4165,10 @@
         <v>-0.459</v>
       </c>
       <c r="H12">
-        <v>-0.247</v>
+        <v>-0.229</v>
       </c>
       <c r="I12">
-        <v>0.805</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4194,10 +4194,10 @@
         <v>1.967</v>
       </c>
       <c r="H13">
-        <v>1.059</v>
+        <v>1.166</v>
       </c>
       <c r="I13">
-        <v>0.291</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4223,10 +4223,10 @@
         <v>-0.02</v>
       </c>
       <c r="H14">
-        <v>-0.913</v>
+        <v>-0.857</v>
       </c>
       <c r="I14">
-        <v>0.363</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4252,10 +4252,10 @@
         <v>-0.002</v>
       </c>
       <c r="H15">
-        <v>-0.061</v>
+        <v>-0.067</v>
       </c>
       <c r="I15">
-        <v>0.952</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4281,10 +4281,10 @@
         <v>-0.007</v>
       </c>
       <c r="H16">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="I16">
-        <v>0.793</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4310,10 +4310,10 @@
         <v>-0.018</v>
       </c>
       <c r="H17">
-        <v>-0.631</v>
+        <v>-0.574</v>
       </c>
       <c r="I17">
-        <v>0.529</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4339,10 +4339,10 @@
         <v>-0.029</v>
       </c>
       <c r="H18">
-        <v>-0.925</v>
+        <v>-0.877</v>
       </c>
       <c r="I18">
-        <v>0.357</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4368,10 +4368,10 @@
         <v>-0.021</v>
       </c>
       <c r="H19">
-        <v>-0.597</v>
+        <v>-0.476</v>
       </c>
       <c r="I19">
-        <v>0.552</v>
+        <v>0.634</v>
       </c>
     </row>
   </sheetData>
@@ -4457,10 +4457,10 @@
         <v>-11.134</v>
       </c>
       <c r="I2">
-        <v>-2.132</v>
+        <v>-2.057</v>
       </c>
       <c r="J2">
-        <v>0.036</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4489,10 +4489,10 @@
         <v>-2.646</v>
       </c>
       <c r="I3">
-        <v>-0.678</v>
+        <v>-0.634</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4521,10 +4521,10 @@
         <v>-2.136</v>
       </c>
       <c r="I4">
-        <v>-0.394</v>
+        <v>-0.31</v>
       </c>
       <c r="J4">
-        <v>0.695</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4553,10 +4553,10 @@
         <v>3.177</v>
       </c>
       <c r="I5">
-        <v>0.597</v>
+        <v>0.508</v>
       </c>
       <c r="J5">
-        <v>0.552</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4585,10 +4585,10 @@
         <v>2.637</v>
       </c>
       <c r="I6">
-        <v>0.495</v>
+        <v>0.461</v>
       </c>
       <c r="J6">
-        <v>0.622</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4617,10 +4617,10 @@
         <v>-7.814</v>
       </c>
       <c r="I7">
-        <v>-1.212</v>
+        <v>-1.013</v>
       </c>
       <c r="J7">
-        <v>0.229</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4649,10 +4649,10 @@
         <v>5.123</v>
       </c>
       <c r="I8">
-        <v>2.275</v>
+        <v>1.92</v>
       </c>
       <c r="J8">
-        <v>0.026</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4681,10 +4681,10 @@
         <v>2.233</v>
       </c>
       <c r="I9">
-        <v>1.22</v>
+        <v>1.048</v>
       </c>
       <c r="J9">
-        <v>0.226</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4713,10 +4713,10 @@
         <v>0.694</v>
       </c>
       <c r="I10">
-        <v>0.292</v>
+        <v>0.231</v>
       </c>
       <c r="J10">
-        <v>0.771</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4745,10 +4745,10 @@
         <v>-1.758</v>
       </c>
       <c r="I11">
-        <v>-0.735</v>
+        <v>-0.702</v>
       </c>
       <c r="J11">
-        <v>0.464</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4777,10 +4777,10 @@
         <v>-0.237</v>
       </c>
       <c r="I12">
-        <v>-0.104</v>
+        <v>-0.105</v>
       </c>
       <c r="J12">
-        <v>0.918</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4809,10 +4809,10 @@
         <v>3.464</v>
       </c>
       <c r="I13">
-        <v>1.391</v>
+        <v>1.269</v>
       </c>
       <c r="J13">
-        <v>0.168</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4841,10 +4841,10 @@
         <v>-0.046</v>
       </c>
       <c r="I14">
-        <v>-1.703</v>
+        <v>-1.329</v>
       </c>
       <c r="J14">
-        <v>0.092</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4873,10 +4873,10 @@
         <v>-0.032</v>
       </c>
       <c r="I15">
-        <v>-0.999</v>
+        <v>-0.761</v>
       </c>
       <c r="J15">
-        <v>0.321</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4905,10 +4905,10 @@
         <v>-0.002</v>
       </c>
       <c r="I16">
-        <v>-0.055</v>
+        <v>-0.041</v>
       </c>
       <c r="J16">
-        <v>0.956</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4937,10 +4937,10 @@
         <v>-0.041</v>
       </c>
       <c r="I17">
-        <v>-1.177</v>
+        <v>-1.008</v>
       </c>
       <c r="J17">
-        <v>0.243</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4969,10 +4969,10 @@
         <v>0.029</v>
       </c>
       <c r="I18">
-        <v>0.6879999999999999</v>
+        <v>0.473</v>
       </c>
       <c r="J18">
-        <v>0.494</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5001,10 +5001,10 @@
         <v>-0.029</v>
       </c>
       <c r="I19">
-        <v>-0.643</v>
+        <v>-0.482</v>
       </c>
       <c r="J19">
-        <v>0.522</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -5097,10 +5097,10 @@
         <v>-9.484999999999999</v>
       </c>
       <c r="J2">
-        <v>-1.509</v>
+        <v>-1.841</v>
       </c>
       <c r="K2">
-        <v>0.135</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5132,10 +5132,10 @@
         <v>1.537</v>
       </c>
       <c r="J3">
-        <v>0.331</v>
+        <v>0.241</v>
       </c>
       <c r="K3">
-        <v>0.742</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5167,10 +5167,10 @@
         <v>0.032</v>
       </c>
       <c r="J4">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K4">
-        <v>0.996</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5202,10 +5202,10 @@
         <v>5.899</v>
       </c>
       <c r="J5">
-        <v>0.9370000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="K5">
-        <v>0.352</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5237,10 +5237,10 @@
         <v>2.166</v>
       </c>
       <c r="J6">
-        <v>0.342</v>
+        <v>0.304</v>
       </c>
       <c r="K6">
-        <v>0.733</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5272,10 +5272,10 @@
         <v>-8.625999999999999</v>
       </c>
       <c r="J7">
-        <v>-1.125</v>
+        <v>-0.901</v>
       </c>
       <c r="K7">
-        <v>0.264</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5307,10 +5307,10 @@
         <v>5.034</v>
       </c>
       <c r="J8">
-        <v>1.863</v>
+        <v>2.026</v>
       </c>
       <c r="K8">
-        <v>0.066</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5342,10 +5342,10 @@
         <v>0.746</v>
       </c>
       <c r="J9">
-        <v>0.341</v>
+        <v>0.256</v>
       </c>
       <c r="K9">
-        <v>0.734</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5377,10 +5377,10 @@
         <v>-0.762</v>
       </c>
       <c r="J10">
-        <v>-0.27</v>
+        <v>-0.243</v>
       </c>
       <c r="K10">
-        <v>0.788</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5412,10 +5412,10 @@
         <v>-2.801</v>
       </c>
       <c r="J11">
-        <v>-0.989</v>
+        <v>-0.895</v>
       </c>
       <c r="K11">
-        <v>0.326</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5447,10 +5447,10 @@
         <v>0.192</v>
       </c>
       <c r="J12">
-        <v>0.07099999999999999</v>
+        <v>0.064</v>
       </c>
       <c r="K12">
-        <v>0.944</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5482,10 +5482,10 @@
         <v>3.52</v>
       </c>
       <c r="J13">
-        <v>1.186</v>
+        <v>0.998</v>
       </c>
       <c r="K13">
-        <v>0.239</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5517,10 +5517,10 @@
         <v>-0.048</v>
       </c>
       <c r="J14">
-        <v>-1.502</v>
+        <v>-1.479</v>
       </c>
       <c r="K14">
-        <v>0.137</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5552,10 +5552,10 @@
         <v>-0.017</v>
       </c>
       <c r="J15">
-        <v>-0.435</v>
+        <v>-0.373</v>
       </c>
       <c r="K15">
-        <v>0.665</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5587,10 +5587,10 @@
         <v>-0.014</v>
       </c>
       <c r="J16">
-        <v>-0.349</v>
+        <v>-0.269</v>
       </c>
       <c r="K16">
-        <v>0.728</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5622,10 +5622,10 @@
         <v>-0.041</v>
       </c>
       <c r="J17">
-        <v>-1.01</v>
+        <v>-1.009</v>
       </c>
       <c r="K17">
-        <v>0.315</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5657,10 +5657,10 @@
         <v>0.001</v>
       </c>
       <c r="J18">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
       <c r="K18">
-        <v>0.989</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5692,10 +5692,10 @@
         <v>-0.027</v>
       </c>
       <c r="J19">
-        <v>-0.512</v>
+        <v>-0.408</v>
       </c>
       <c r="K19">
-        <v>0.61</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5788,10 +5788,10 @@
         <v>-12.332</v>
       </c>
       <c r="J2">
-        <v>-1.608</v>
+        <v>-1.379</v>
       </c>
       <c r="K2">
-        <v>0.112</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5823,10 +5823,10 @@
         <v>0.045</v>
       </c>
       <c r="J3">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="K3">
-        <v>0.994</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5858,10 +5858,10 @@
         <v>2.38</v>
       </c>
       <c r="J4">
-        <v>0.302</v>
+        <v>0.257</v>
       </c>
       <c r="K4">
-        <v>0.763</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5893,10 +5893,10 @@
         <v>8.545</v>
       </c>
       <c r="J5">
-        <v>1.112</v>
+        <v>0.879</v>
       </c>
       <c r="K5">
-        <v>0.269</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5928,10 +5928,10 @@
         <v>1.704</v>
       </c>
       <c r="J6">
-        <v>0.22</v>
+        <v>0.194</v>
       </c>
       <c r="K6">
-        <v>0.827</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5963,10 +5963,10 @@
         <v>-10.677</v>
       </c>
       <c r="J7">
-        <v>-1.139</v>
+        <v>-1.045</v>
       </c>
       <c r="K7">
-        <v>0.258</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5998,10 +5998,10 @@
         <v>6.463</v>
       </c>
       <c r="J8">
-        <v>1.961</v>
+        <v>1.666</v>
       </c>
       <c r="K8">
-        <v>0.053</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6033,10 +6033,10 @@
         <v>1.502</v>
       </c>
       <c r="J9">
-        <v>0.5610000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="K9">
-        <v>0.576</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6068,10 +6068,10 @@
         <v>-2.316</v>
       </c>
       <c r="J10">
-        <v>-0.674</v>
+        <v>-0.621</v>
       </c>
       <c r="K10">
-        <v>0.502</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6103,10 +6103,10 @@
         <v>-4.288</v>
       </c>
       <c r="J11">
-        <v>-1.243</v>
+        <v>-1.02</v>
       </c>
       <c r="K11">
-        <v>0.218</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6138,10 +6138,10 @@
         <v>0.343</v>
       </c>
       <c r="J12">
-        <v>0.103</v>
+        <v>0.091</v>
       </c>
       <c r="K12">
-        <v>0.918</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6173,10 +6173,10 @@
         <v>3.647</v>
       </c>
       <c r="J13">
-        <v>1.003</v>
+        <v>0.973</v>
       </c>
       <c r="K13">
-        <v>0.319</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6208,10 +6208,10 @@
         <v>-0.039</v>
       </c>
       <c r="J14">
-        <v>-0.986</v>
+        <v>-0.874</v>
       </c>
       <c r="K14">
-        <v>0.327</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6243,10 +6243,10 @@
         <v>0.003</v>
       </c>
       <c r="J15">
-        <v>0.058</v>
+        <v>0.061</v>
       </c>
       <c r="K15">
-        <v>0.954</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6278,10 +6278,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="J16">
-        <v>-0.17</v>
+        <v>-0.189</v>
       </c>
       <c r="K16">
-        <v>0.866</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6313,10 +6313,10 @@
         <v>-0.02</v>
       </c>
       <c r="J17">
-        <v>-0.389</v>
+        <v>-0.369</v>
       </c>
       <c r="K17">
-        <v>0.699</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6348,10 +6348,10 @@
         <v>0.02</v>
       </c>
       <c r="J18">
-        <v>0.326</v>
+        <v>0.242</v>
       </c>
       <c r="K18">
-        <v>0.745</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6383,10 +6383,10 @@
         <v>-0.049</v>
       </c>
       <c r="J19">
-        <v>-0.752</v>
+        <v>-0.608</v>
       </c>
       <c r="K19">
-        <v>0.454</v>
+        <v>0.543</v>
       </c>
     </row>
   </sheetData>
@@ -6465,10 +6465,10 @@
         <v>-10.046</v>
       </c>
       <c r="H2">
-        <v>-1.83</v>
+        <v>-1.629</v>
       </c>
       <c r="I2">
-        <v>0.073</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6494,10 +6494,10 @@
         <v>3.406</v>
       </c>
       <c r="H3">
-        <v>0.82</v>
+        <v>0.552</v>
       </c>
       <c r="I3">
-        <v>0.416</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6523,10 +6523,10 @@
         <v>5.29</v>
       </c>
       <c r="H4">
-        <v>0.882</v>
+        <v>0.779</v>
       </c>
       <c r="I4">
-        <v>0.382</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6552,10 +6552,10 @@
         <v>4.802</v>
       </c>
       <c r="H5">
-        <v>0.8149999999999999</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="I5">
-        <v>0.419</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6581,10 +6581,10 @@
         <v>10.94</v>
       </c>
       <c r="H6">
-        <v>1.941</v>
+        <v>1.624</v>
       </c>
       <c r="I6">
-        <v>0.057</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6610,10 +6610,10 @@
         <v>-2.465</v>
       </c>
       <c r="H7">
-        <v>-0.347</v>
+        <v>-0.278</v>
       </c>
       <c r="I7">
-        <v>0.73</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6639,10 +6639,10 @@
         <v>3.904</v>
       </c>
       <c r="H8">
-        <v>1.631</v>
+        <v>1.336</v>
       </c>
       <c r="I8">
-        <v>0.109</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6668,10 +6668,10 @@
         <v>-0.474</v>
       </c>
       <c r="H9">
-        <v>-0.229</v>
+        <v>-0.172</v>
       </c>
       <c r="I9">
-        <v>0.82</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6697,10 +6697,10 @@
         <v>-1.544</v>
       </c>
       <c r="H10">
-        <v>-0.5620000000000001</v>
+        <v>-0.469</v>
       </c>
       <c r="I10">
-        <v>0.576</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6726,10 +6726,10 @@
         <v>-3.424</v>
       </c>
       <c r="H11">
-        <v>-1.322</v>
+        <v>-0.977</v>
       </c>
       <c r="I11">
-        <v>0.192</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6755,10 +6755,10 @@
         <v>-3.925</v>
       </c>
       <c r="H12">
-        <v>-1.683</v>
+        <v>-1.442</v>
       </c>
       <c r="I12">
-        <v>0.098</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6784,10 +6784,10 @@
         <v>1.799</v>
       </c>
       <c r="H13">
-        <v>0.665</v>
+        <v>0.53</v>
       </c>
       <c r="I13">
-        <v>0.509</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6813,10 +6813,10 @@
         <v>-0.007</v>
       </c>
       <c r="H14">
-        <v>-0.253</v>
+        <v>-0.311</v>
       </c>
       <c r="I14">
-        <v>0.802</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6842,10 +6842,10 @@
         <v>-0.016</v>
       </c>
       <c r="H15">
-        <v>-0.475</v>
+        <v>-0.365</v>
       </c>
       <c r="I15">
-        <v>0.637</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6871,10 +6871,10 @@
         <v>-0.04</v>
       </c>
       <c r="H16">
-        <v>-1.01</v>
+        <v>-0.8159999999999999</v>
       </c>
       <c r="I16">
-        <v>0.317</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6900,10 +6900,10 @@
         <v>-0.01</v>
       </c>
       <c r="H17">
-        <v>-0.28</v>
+        <v>-0.23</v>
       </c>
       <c r="I17">
-        <v>0.781</v>
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6929,10 +6929,10 @@
         <v>0.039</v>
       </c>
       <c r="H18">
-        <v>0.876</v>
+        <v>0.83</v>
       </c>
       <c r="I18">
-        <v>0.385</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6958,10 +6958,10 @@
         <v>-0.051</v>
       </c>
       <c r="H19">
-        <v>-1.023</v>
+        <v>-1.087</v>
       </c>
       <c r="I19">
-        <v>0.311</v>
+        <v>0.277</v>
       </c>
     </row>
   </sheetData>
@@ -7047,10 +7047,10 @@
         <v>-13.464</v>
       </c>
       <c r="I2">
-        <v>-2.382</v>
+        <v>-2.408</v>
       </c>
       <c r="J2">
-        <v>0.021</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7079,10 +7079,10 @@
         <v>-0.8090000000000001</v>
       </c>
       <c r="I3">
-        <v>-0.184</v>
+        <v>-0.132</v>
       </c>
       <c r="J3">
-        <v>0.854</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7111,10 +7111,10 @@
         <v>9.292</v>
       </c>
       <c r="I4">
-        <v>1.495</v>
+        <v>1.085</v>
       </c>
       <c r="J4">
-        <v>0.141</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7143,10 +7143,10 @@
         <v>8.459</v>
       </c>
       <c r="I5">
-        <v>1.383</v>
+        <v>1.106</v>
       </c>
       <c r="J5">
-        <v>0.173</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7175,10 +7175,10 @@
         <v>6.535</v>
       </c>
       <c r="I6">
-        <v>1.079</v>
+        <v>0.893</v>
       </c>
       <c r="J6">
-        <v>0.285</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7207,10 +7207,10 @@
         <v>-5.911</v>
       </c>
       <c r="I7">
-        <v>-0.797</v>
+        <v>-0.629</v>
       </c>
       <c r="J7">
-        <v>0.429</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7239,10 +7239,10 @@
         <v>4.947</v>
       </c>
       <c r="I8">
-        <v>1.991</v>
+        <v>1.662</v>
       </c>
       <c r="J8">
-        <v>0.052</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7271,10 +7271,10 @@
         <v>1.763</v>
       </c>
       <c r="I9">
-        <v>0.8129999999999999</v>
+        <v>0.612</v>
       </c>
       <c r="J9">
-        <v>0.42</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7303,10 +7303,10 @@
         <v>-3.367</v>
       </c>
       <c r="I10">
-        <v>-1.179</v>
+        <v>-0.82</v>
       </c>
       <c r="J10">
-        <v>0.244</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7335,10 +7335,10 @@
         <v>-4.118</v>
       </c>
       <c r="I11">
-        <v>-1.523</v>
+        <v>-1.421</v>
       </c>
       <c r="J11">
-        <v>0.134</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7367,10 +7367,10 @@
         <v>-2.215</v>
       </c>
       <c r="I12">
-        <v>-0.888</v>
+        <v>-0.771</v>
       </c>
       <c r="J12">
-        <v>0.378</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7399,10 +7399,10 @@
         <v>2.753</v>
       </c>
       <c r="I13">
-        <v>0.974</v>
+        <v>0.773</v>
       </c>
       <c r="J13">
-        <v>0.335</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7431,10 +7431,10 @@
         <v>-0.028</v>
       </c>
       <c r="I14">
-        <v>-0.956</v>
+        <v>-0.897</v>
       </c>
       <c r="J14">
-        <v>0.343</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7463,10 +7463,10 @@
         <v>-0.034</v>
       </c>
       <c r="I15">
-        <v>-1.003</v>
+        <v>-0.699</v>
       </c>
       <c r="J15">
-        <v>0.32</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7495,10 +7495,10 @@
         <v>-0.01</v>
       </c>
       <c r="I16">
-        <v>-0.227</v>
+        <v>-0.162</v>
       </c>
       <c r="J16">
-        <v>0.821</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7527,10 +7527,10 @@
         <v>0.012</v>
       </c>
       <c r="I17">
-        <v>0.305</v>
+        <v>0.252</v>
       </c>
       <c r="J17">
-        <v>0.761</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7559,10 +7559,10 @@
         <v>0.068</v>
       </c>
       <c r="I18">
-        <v>1.482</v>
+        <v>1.149</v>
       </c>
       <c r="J18">
-        <v>0.144</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7591,10 +7591,10 @@
         <v>-0.05</v>
       </c>
       <c r="I19">
-        <v>-0.952</v>
+        <v>-0.723</v>
       </c>
       <c r="J19">
-        <v>0.345</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -7687,10 +7687,10 @@
         <v>-13.901</v>
       </c>
       <c r="J2">
-        <v>-2.129</v>
+        <v>-2.277</v>
       </c>
       <c r="K2">
-        <v>0.038</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7722,10 +7722,10 @@
         <v>1.846</v>
       </c>
       <c r="J3">
-        <v>0.368</v>
+        <v>0.265</v>
       </c>
       <c r="K3">
-        <v>0.714</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7757,10 +7757,10 @@
         <v>8.606999999999999</v>
       </c>
       <c r="J4">
-        <v>1.202</v>
+        <v>0.872</v>
       </c>
       <c r="K4">
-        <v>0.235</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7792,10 +7792,10 @@
         <v>10.885</v>
       </c>
       <c r="J5">
-        <v>1.563</v>
+        <v>1.275</v>
       </c>
       <c r="K5">
-        <v>0.124</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7827,10 +7827,10 @@
         <v>6.923</v>
       </c>
       <c r="J6">
-        <v>0.998</v>
+        <v>0.794</v>
       </c>
       <c r="K6">
-        <v>0.323</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7862,10 +7862,10 @@
         <v>-5.261</v>
       </c>
       <c r="J7">
-        <v>-0.618</v>
+        <v>-0.481</v>
       </c>
       <c r="K7">
-        <v>0.539</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7897,10 +7897,10 @@
         <v>5.511</v>
       </c>
       <c r="J8">
-        <v>1.935</v>
+        <v>1.807</v>
       </c>
       <c r="K8">
-        <v>0.058</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7932,10 +7932,10 @@
         <v>0.654</v>
       </c>
       <c r="J9">
-        <v>0.262</v>
+        <v>0.195</v>
       </c>
       <c r="K9">
-        <v>0.794</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7967,10 +7967,10 @@
         <v>-3.283</v>
       </c>
       <c r="J10">
-        <v>-1.001</v>
+        <v>-0.748</v>
       </c>
       <c r="K10">
-        <v>0.321</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8002,10 +8002,10 @@
         <v>-5.511</v>
       </c>
       <c r="J11">
-        <v>-1.795</v>
+        <v>-1.648</v>
       </c>
       <c r="K11">
-        <v>0.078</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8037,10 +8037,10 @@
         <v>-1.903</v>
       </c>
       <c r="J12">
-        <v>-0.665</v>
+        <v>-0.524</v>
       </c>
       <c r="K12">
-        <v>0.509</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8072,10 +8072,10 @@
         <v>2.228</v>
       </c>
       <c r="J13">
-        <v>0.6860000000000001</v>
+        <v>0.542</v>
       </c>
       <c r="K13">
-        <v>0.496</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8107,10 +8107,10 @@
         <v>-0.035</v>
       </c>
       <c r="J14">
-        <v>-1.018</v>
+        <v>-1.488</v>
       </c>
       <c r="K14">
-        <v>0.313</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8142,10 +8142,10 @@
         <v>-0.02</v>
       </c>
       <c r="J15">
-        <v>-0.517</v>
+        <v>-0.439</v>
       </c>
       <c r="K15">
-        <v>0.608</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8177,10 +8177,10 @@
         <v>-0.011</v>
       </c>
       <c r="J16">
-        <v>-0.228</v>
+        <v>-0.195</v>
       </c>
       <c r="K16">
-        <v>0.82</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8212,10 +8212,10 @@
         <v>0.027</v>
       </c>
       <c r="J17">
-        <v>0.619</v>
+        <v>0.637</v>
       </c>
       <c r="K17">
-        <v>0.539</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8247,10 +8247,10 @@
         <v>0.051</v>
       </c>
       <c r="J18">
-        <v>0.961</v>
+        <v>0.83</v>
       </c>
       <c r="K18">
-        <v>0.341</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8282,10 +8282,10 @@
         <v>-0.048</v>
       </c>
       <c r="J19">
-        <v>-0.803</v>
+        <v>-0.597</v>
       </c>
       <c r="K19">
-        <v>0.425</v>
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
@@ -8378,10 +8378,10 @@
         <v>-21.552</v>
       </c>
       <c r="J2">
-        <v>-2.9</v>
+        <v>-3.502</v>
       </c>
       <c r="K2">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8413,10 +8413,10 @@
         <v>3.002</v>
       </c>
       <c r="J3">
-        <v>0.51</v>
+        <v>0.351</v>
       </c>
       <c r="K3">
-        <v>0.612</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8448,10 +8448,10 @@
         <v>0.57</v>
       </c>
       <c r="J4">
-        <v>0.067</v>
+        <v>0.062</v>
       </c>
       <c r="K4">
-        <v>0.947</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8483,10 +8483,10 @@
         <v>5.29</v>
       </c>
       <c r="J5">
-        <v>0.634</v>
+        <v>0.457</v>
       </c>
       <c r="K5">
-        <v>0.529</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8518,10 +8518,10 @@
         <v>3.453</v>
       </c>
       <c r="J6">
-        <v>0.42</v>
+        <v>0.307</v>
       </c>
       <c r="K6">
-        <v>0.676</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8553,10 +8553,10 @@
         <v>-13.691</v>
       </c>
       <c r="J7">
-        <v>-1.388</v>
+        <v>-1.324</v>
       </c>
       <c r="K7">
-        <v>0.171</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8588,10 +8588,10 @@
         <v>8.180999999999999</v>
       </c>
       <c r="J8">
-        <v>2.496</v>
+        <v>2.557</v>
       </c>
       <c r="K8">
-        <v>0.016</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8623,10 +8623,10 @@
         <v>0.121</v>
       </c>
       <c r="J9">
-        <v>0.041</v>
+        <v>0.031</v>
       </c>
       <c r="K9">
-        <v>0.967</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8658,10 +8658,10 @@
         <v>-0.299</v>
       </c>
       <c r="J10">
-        <v>-0.077</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="K10">
-        <v>0.9389999999999999</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8693,10 +8693,10 @@
         <v>-2.75</v>
       </c>
       <c r="J11">
-        <v>-0.744</v>
+        <v>-0.59</v>
       </c>
       <c r="K11">
-        <v>0.46</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8728,10 +8728,10 @@
         <v>-1.091</v>
       </c>
       <c r="J12">
-        <v>-0.323</v>
+        <v>-0.245</v>
       </c>
       <c r="K12">
-        <v>0.748</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8763,10 +8763,10 @@
         <v>4.99</v>
       </c>
       <c r="J13">
-        <v>1.322</v>
+        <v>1.225</v>
       </c>
       <c r="K13">
-        <v>0.192</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8798,10 +8798,10 @@
         <v>-0.016</v>
       </c>
       <c r="J14">
-        <v>-0.393</v>
+        <v>-0.356</v>
       </c>
       <c r="K14">
-        <v>0.696</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8833,10 +8833,10 @@
         <v>0.024</v>
       </c>
       <c r="J15">
-        <v>0.519</v>
+        <v>0.427</v>
       </c>
       <c r="K15">
-        <v>0.606</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8868,10 +8868,10 @@
         <v>0.025</v>
       </c>
       <c r="J16">
-        <v>0.44</v>
+        <v>0.498</v>
       </c>
       <c r="K16">
-        <v>0.661</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8903,10 +8903,10 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="J17">
-        <v>1.402</v>
+        <v>1.664</v>
       </c>
       <c r="K17">
-        <v>0.167</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8938,10 +8938,10 @@
         <v>0.1</v>
       </c>
       <c r="J18">
-        <v>1.629</v>
+        <v>1.684</v>
       </c>
       <c r="K18">
-        <v>0.109</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8973,10 +8973,10 @@
         <v>-0.078</v>
       </c>
       <c r="J19">
-        <v>-1.106</v>
+        <v>-1.019</v>
       </c>
       <c r="K19">
-        <v>0.274</v>
+        <v>0.308</v>
       </c>
     </row>
   </sheetData>
@@ -9062,10 +9062,10 @@
         <v>-3.88</v>
       </c>
       <c r="I2">
-        <v>-0.8110000000000001</v>
+        <v>-0.957</v>
       </c>
       <c r="J2">
-        <v>0.419</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9094,10 +9094,10 @@
         <v>-0.6870000000000001</v>
       </c>
       <c r="I3">
-        <v>-0.173</v>
+        <v>-0.164</v>
       </c>
       <c r="J3">
-        <v>0.863</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9126,10 +9126,10 @@
         <v>6.318</v>
       </c>
       <c r="I4">
-        <v>1.258</v>
+        <v>0.98</v>
       </c>
       <c r="J4">
-        <v>0.211</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9158,10 +9158,10 @@
         <v>2.633</v>
       </c>
       <c r="I5">
-        <v>0.528</v>
+        <v>0.436</v>
       </c>
       <c r="J5">
-        <v>0.598</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9190,10 +9190,10 @@
         <v>7.467</v>
       </c>
       <c r="I6">
-        <v>1.439</v>
+        <v>1.403</v>
       </c>
       <c r="J6">
-        <v>0.153</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9222,10 +9222,10 @@
         <v>-1.311</v>
       </c>
       <c r="I7">
-        <v>-0.224</v>
+        <v>-0.273</v>
       </c>
       <c r="J7">
-        <v>0.823</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9254,10 +9254,10 @@
         <v>0.515</v>
       </c>
       <c r="I8">
-        <v>0.255</v>
+        <v>0.267</v>
       </c>
       <c r="J8">
-        <v>0.799</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9286,10 +9286,10 @@
         <v>1.683</v>
       </c>
       <c r="I9">
-        <v>0.9399999999999999</v>
+        <v>0.874</v>
       </c>
       <c r="J9">
-        <v>0.349</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9318,10 +9318,10 @@
         <v>-2.284</v>
       </c>
       <c r="I10">
-        <v>-1.085</v>
+        <v>-0.838</v>
       </c>
       <c r="J10">
-        <v>0.28</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9350,10 +9350,10 @@
         <v>-1.967</v>
       </c>
       <c r="I11">
-        <v>-0.909</v>
+        <v>-0.917</v>
       </c>
       <c r="J11">
-        <v>0.365</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9382,10 +9382,10 @@
         <v>-2.03</v>
       </c>
       <c r="I12">
-        <v>-0.9429999999999999</v>
+        <v>-0.952</v>
       </c>
       <c r="J12">
-        <v>0.347</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9414,10 +9414,10 @@
         <v>1.023</v>
       </c>
       <c r="I13">
-        <v>0.472</v>
+        <v>0.533</v>
       </c>
       <c r="J13">
-        <v>0.638</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9446,10 +9446,10 @@
         <v>-0.037</v>
       </c>
       <c r="I14">
-        <v>-1.416</v>
+        <v>-1.09</v>
       </c>
       <c r="J14">
-        <v>0.159</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9478,10 +9478,10 @@
         <v>0.006</v>
       </c>
       <c r="I15">
-        <v>0.207</v>
+        <v>0.233</v>
       </c>
       <c r="J15">
-        <v>0.837</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9510,10 +9510,10 @@
         <v>0.043</v>
       </c>
       <c r="I16">
-        <v>1.346</v>
+        <v>1.394</v>
       </c>
       <c r="J16">
-        <v>0.181</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9542,10 +9542,10 @@
         <v>-0.008</v>
       </c>
       <c r="I17">
-        <v>-0.244</v>
+        <v>-0.223</v>
       </c>
       <c r="J17">
-        <v>0.8070000000000001</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9574,10 +9574,10 @@
         <v>-0.014</v>
       </c>
       <c r="I18">
-        <v>-0.389</v>
+        <v>-0.353</v>
       </c>
       <c r="J18">
-        <v>0.698</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9606,10 +9606,10 @@
         <v>-0.014</v>
       </c>
       <c r="I19">
-        <v>-0.339</v>
+        <v>-0.261</v>
       </c>
       <c r="J19">
-        <v>0.735</v>
+        <v>0.794</v>
       </c>
     </row>
   </sheetData>
@@ -9695,10 +9695,10 @@
         <v>-2.861</v>
       </c>
       <c r="I2">
-        <v>-0.504</v>
+        <v>-0.679</v>
       </c>
       <c r="J2">
-        <v>0.615</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9727,10 +9727,10 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="I3">
-        <v>0.147</v>
+        <v>0.129</v>
       </c>
       <c r="J3">
-        <v>0.883</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9759,10 +9759,10 @@
         <v>5.638</v>
       </c>
       <c r="I4">
-        <v>0.945</v>
+        <v>0.724</v>
       </c>
       <c r="J4">
-        <v>0.346</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9791,10 +9791,10 @@
         <v>5.322</v>
       </c>
       <c r="I5">
-        <v>0.903</v>
+        <v>0.748</v>
       </c>
       <c r="J5">
-        <v>0.368</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9823,10 +9823,10 @@
         <v>6.762</v>
       </c>
       <c r="I6">
-        <v>1.097</v>
+        <v>1.082</v>
       </c>
       <c r="J6">
-        <v>0.275</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9855,10 +9855,10 @@
         <v>-1.963</v>
       </c>
       <c r="I7">
-        <v>-0.283</v>
+        <v>-0.35</v>
       </c>
       <c r="J7">
-        <v>0.778</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9887,10 +9887,10 @@
         <v>0.285</v>
       </c>
       <c r="I8">
-        <v>0.119</v>
+        <v>0.126</v>
       </c>
       <c r="J8">
-        <v>0.905</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9919,10 +9919,10 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="I9">
-        <v>0.439</v>
+        <v>0.359</v>
       </c>
       <c r="J9">
-        <v>0.662</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9951,10 +9951,10 @@
         <v>-2.113</v>
       </c>
       <c r="I10">
-        <v>-0.846</v>
+        <v>-0.639</v>
       </c>
       <c r="J10">
-        <v>0.399</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9983,10 +9983,10 @@
         <v>-2.837</v>
       </c>
       <c r="I11">
-        <v>-1.108</v>
+        <v>-1.003</v>
       </c>
       <c r="J11">
-        <v>0.27</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10015,10 +10015,10 @@
         <v>-1.733</v>
       </c>
       <c r="I12">
-        <v>-0.678</v>
+        <v>-0.622</v>
       </c>
       <c r="J12">
-        <v>0.499</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10047,10 +10047,10 @@
         <v>1.405</v>
       </c>
       <c r="I13">
-        <v>0.547</v>
+        <v>0.654</v>
       </c>
       <c r="J13">
-        <v>0.585</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10079,10 +10079,10 @@
         <v>-0.042</v>
       </c>
       <c r="I14">
-        <v>-1.355</v>
+        <v>-1.074</v>
       </c>
       <c r="J14">
-        <v>0.178</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10111,10 +10111,10 @@
         <v>0.008</v>
       </c>
       <c r="I15">
-        <v>0.235</v>
+        <v>0.263</v>
       </c>
       <c r="J15">
-        <v>0.8149999999999999</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10143,10 +10143,10 @@
         <v>0.041</v>
       </c>
       <c r="I16">
-        <v>1.07</v>
+        <v>1.165</v>
       </c>
       <c r="J16">
-        <v>0.286</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10175,10 +10175,10 @@
         <v>-0.008</v>
       </c>
       <c r="I17">
-        <v>-0.214</v>
+        <v>-0.218</v>
       </c>
       <c r="J17">
-        <v>0.831</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10207,10 +10207,10 @@
         <v>-0.036</v>
       </c>
       <c r="I18">
-        <v>-0.8139999999999999</v>
+        <v>-0.982</v>
       </c>
       <c r="J18">
-        <v>0.417</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10239,10 +10239,10 @@
         <v>-0.012</v>
       </c>
       <c r="I19">
-        <v>-0.236</v>
+        <v>-0.216</v>
       </c>
       <c r="J19">
-        <v>0.8129999999999999</v>
+        <v>0.829</v>
       </c>
     </row>
   </sheetData>
@@ -10328,10 +10328,10 @@
         <v>1.843</v>
       </c>
       <c r="I2">
-        <v>0.288</v>
+        <v>0.309</v>
       </c>
       <c r="J2">
-        <v>0.774</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10360,10 +10360,10 @@
         <v>1.943</v>
       </c>
       <c r="I3">
-        <v>0.366</v>
+        <v>0.327</v>
       </c>
       <c r="J3">
-        <v>0.715</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10392,10 +10392,10 @@
         <v>8.891999999999999</v>
       </c>
       <c r="I4">
-        <v>1.327</v>
+        <v>1.183</v>
       </c>
       <c r="J4">
-        <v>0.187</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10424,10 +10424,10 @@
         <v>9.358000000000001</v>
       </c>
       <c r="I5">
-        <v>1.416</v>
+        <v>1.213</v>
       </c>
       <c r="J5">
-        <v>0.159</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10456,10 +10456,10 @@
         <v>8.898999999999999</v>
       </c>
       <c r="I6">
-        <v>1.283</v>
+        <v>1.252</v>
       </c>
       <c r="J6">
-        <v>0.202</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10488,10 +10488,10 @@
         <v>-1.814</v>
       </c>
       <c r="I7">
-        <v>-0.232</v>
+        <v>-0.299</v>
       </c>
       <c r="J7">
-        <v>0.8169999999999999</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10520,10 +10520,10 @@
         <v>-1.959</v>
       </c>
       <c r="I8">
-        <v>-0.727</v>
+        <v>-0.6860000000000001</v>
       </c>
       <c r="J8">
-        <v>0.468</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10552,10 +10552,10 @@
         <v>0.454</v>
       </c>
       <c r="I9">
-        <v>0.189</v>
+        <v>0.163</v>
       </c>
       <c r="J9">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10584,10 +10584,10 @@
         <v>-4.105</v>
       </c>
       <c r="I10">
-        <v>-1.466</v>
+        <v>-1.248</v>
       </c>
       <c r="J10">
-        <v>0.145</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10616,10 +10616,10 @@
         <v>-4.606</v>
       </c>
       <c r="I11">
-        <v>-1.605</v>
+        <v>-1.417</v>
       </c>
       <c r="J11">
-        <v>0.111</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10648,10 +10648,10 @@
         <v>-2.59</v>
       </c>
       <c r="I12">
-        <v>-0.901</v>
+        <v>-0.843</v>
       </c>
       <c r="J12">
-        <v>0.369</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10680,10 +10680,10 @@
         <v>1.298</v>
       </c>
       <c r="I13">
-        <v>0.449</v>
+        <v>0.586</v>
       </c>
       <c r="J13">
-        <v>0.654</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10712,10 +10712,10 @@
         <v>-0.016</v>
       </c>
       <c r="I14">
-        <v>-0.463</v>
+        <v>-0.387</v>
       </c>
       <c r="J14">
-        <v>0.644</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10744,10 +10744,10 @@
         <v>0.014</v>
       </c>
       <c r="I15">
-        <v>0.371</v>
+        <v>0.459</v>
       </c>
       <c r="J15">
-        <v>0.711</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10776,10 +10776,10 @@
         <v>0.038</v>
       </c>
       <c r="I16">
-        <v>0.88</v>
+        <v>0.906</v>
       </c>
       <c r="J16">
-        <v>0.38</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10808,10 +10808,10 @@
         <v>-0.005</v>
       </c>
       <c r="I17">
-        <v>-0.122</v>
+        <v>-0.135</v>
       </c>
       <c r="J17">
-        <v>0.903</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10840,10 +10840,10 @@
         <v>-0.07099999999999999</v>
       </c>
       <c r="I18">
-        <v>-1.45</v>
+        <v>-1.888</v>
       </c>
       <c r="J18">
-        <v>0.149</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10872,10 +10872,10 @@
         <v>-0.042</v>
       </c>
       <c r="I19">
-        <v>-0.75</v>
+        <v>-0.8139999999999999</v>
       </c>
       <c r="J19">
-        <v>0.455</v>
+        <v>0.416</v>
       </c>
     </row>
   </sheetData>
@@ -10954,10 +10954,10 @@
         <v>-6.083</v>
       </c>
       <c r="H2">
-        <v>-1.335</v>
+        <v>-1.286</v>
       </c>
       <c r="I2">
-        <v>0.185</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10983,10 +10983,10 @@
         <v>-0.699</v>
       </c>
       <c r="H3">
-        <v>-0.196</v>
+        <v>-0.163</v>
       </c>
       <c r="I3">
-        <v>0.845</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11012,10 +11012,10 @@
         <v>-1.758</v>
       </c>
       <c r="H4">
-        <v>-0.363</v>
+        <v>-0.359</v>
       </c>
       <c r="I4">
-        <v>0.717</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11041,10 +11041,10 @@
         <v>-1.751</v>
       </c>
       <c r="H5">
-        <v>-0.377</v>
+        <v>-0.335</v>
       </c>
       <c r="I5">
-        <v>0.707</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11070,10 +11070,10 @@
         <v>4.2</v>
       </c>
       <c r="H6">
-        <v>0.895</v>
+        <v>0.844</v>
       </c>
       <c r="I6">
-        <v>0.373</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11099,10 +11099,10 @@
         <v>-5.698</v>
       </c>
       <c r="H7">
-        <v>-1.038</v>
+        <v>-1.096</v>
       </c>
       <c r="I7">
-        <v>0.302</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11128,10 +11128,10 @@
         <v>2.405</v>
       </c>
       <c r="H8">
-        <v>1.261</v>
+        <v>1.154</v>
       </c>
       <c r="I8">
-        <v>0.21</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11157,10 +11157,10 @@
         <v>1.615</v>
       </c>
       <c r="H9">
-        <v>0.997</v>
+        <v>0.794</v>
       </c>
       <c r="I9">
-        <v>0.321</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11186,10 +11186,10 @@
         <v>0.876</v>
       </c>
       <c r="H10">
-        <v>0.428</v>
+        <v>0.451</v>
       </c>
       <c r="I10">
-        <v>0.669</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11244,10 +11244,10 @@
         <v>-0.828</v>
       </c>
       <c r="H12">
-        <v>-0.424</v>
+        <v>-0.367</v>
       </c>
       <c r="I12">
-        <v>0.672</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11273,10 +11273,10 @@
         <v>2.714</v>
       </c>
       <c r="H13">
-        <v>1.294</v>
+        <v>1.354</v>
       </c>
       <c r="I13">
-        <v>0.199</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11302,10 +11302,10 @@
         <v>-0.018</v>
       </c>
       <c r="H14">
-        <v>-0.754</v>
+        <v>-1.139</v>
       </c>
       <c r="I14">
-        <v>0.452</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11331,10 +11331,10 @@
         <v>-0.023</v>
       </c>
       <c r="H15">
-        <v>-0.827</v>
+        <v>-0.9409999999999999</v>
       </c>
       <c r="I15">
-        <v>0.41</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11360,10 +11360,10 @@
         <v>-0.013</v>
       </c>
       <c r="H16">
-        <v>-0.426</v>
+        <v>-0.509</v>
       </c>
       <c r="I16">
-        <v>0.671</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11389,10 +11389,10 @@
         <v>-0.041</v>
       </c>
       <c r="H17">
-        <v>-1.327</v>
+        <v>-1.302</v>
       </c>
       <c r="I17">
-        <v>0.187</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11418,10 +11418,10 @@
         <v>0.003</v>
       </c>
       <c r="H18">
-        <v>0.083</v>
+        <v>0.075</v>
       </c>
       <c r="I18">
-        <v>0.9340000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11447,10 +11447,10 @@
         <v>-0.021</v>
       </c>
       <c r="H19">
-        <v>-0.537</v>
+        <v>-0.615</v>
       </c>
       <c r="I19">
-        <v>0.593</v>
+        <v>0.538</v>
       </c>
     </row>
   </sheetData>
@@ -11536,10 +11536,10 @@
         <v>-8.852</v>
       </c>
       <c r="I2">
-        <v>-1.831</v>
+        <v>-1.965</v>
       </c>
       <c r="J2">
-        <v>0.07000000000000001</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11568,10 +11568,10 @@
         <v>-2.414</v>
       </c>
       <c r="I3">
-        <v>-0.633</v>
+        <v>-0.573</v>
       </c>
       <c r="J3">
-        <v>0.528</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11600,10 +11600,10 @@
         <v>0.701</v>
       </c>
       <c r="I4">
-        <v>0.136</v>
+        <v>0.139</v>
       </c>
       <c r="J4">
-        <v>0.892</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11632,10 +11632,10 @@
         <v>-1.369</v>
       </c>
       <c r="I5">
-        <v>-0.276</v>
+        <v>-0.235</v>
       </c>
       <c r="J5">
-        <v>0.783</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11664,10 +11664,10 @@
         <v>4.527</v>
       </c>
       <c r="I6">
-        <v>0.903</v>
+        <v>0.918</v>
       </c>
       <c r="J6">
-        <v>0.369</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11696,10 +11696,10 @@
         <v>-6.003</v>
       </c>
       <c r="I7">
-        <v>-1.023</v>
+        <v>-0.956</v>
       </c>
       <c r="J7">
-        <v>0.309</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11728,10 +11728,10 @@
         <v>3.339</v>
       </c>
       <c r="I8">
-        <v>1.646</v>
+        <v>1.529</v>
       </c>
       <c r="J8">
-        <v>0.102</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11760,10 +11760,10 @@
         <v>2.494</v>
       </c>
       <c r="I9">
-        <v>1.447</v>
+        <v>1.206</v>
       </c>
       <c r="J9">
-        <v>0.151</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11792,10 +11792,10 @@
         <v>-0.571</v>
       </c>
       <c r="I10">
-        <v>-0.261</v>
+        <v>-0.267</v>
       </c>
       <c r="J10">
-        <v>0.795</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11824,10 +11824,10 @@
         <v>-0.186</v>
       </c>
       <c r="I11">
-        <v>-0.08500000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="J11">
-        <v>0.9330000000000001</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11856,10 +11856,10 @@
         <v>-0.766</v>
       </c>
       <c r="I12">
-        <v>-0.367</v>
+        <v>-0.35</v>
       </c>
       <c r="J12">
-        <v>0.714</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11888,10 +11888,10 @@
         <v>2.785</v>
       </c>
       <c r="I13">
-        <v>1.241</v>
+        <v>1.131</v>
       </c>
       <c r="J13">
-        <v>0.217</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11920,10 +11920,10 @@
         <v>-0.031</v>
       </c>
       <c r="I14">
-        <v>-1.217</v>
+        <v>-1.339</v>
       </c>
       <c r="J14">
-        <v>0.226</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11952,10 +11952,10 @@
         <v>-0.027</v>
       </c>
       <c r="I15">
-        <v>-0.921</v>
+        <v>-1.017</v>
       </c>
       <c r="J15">
-        <v>0.359</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11984,10 +11984,10 @@
         <v>0.041</v>
       </c>
       <c r="I16">
-        <v>1.279</v>
+        <v>1.459</v>
       </c>
       <c r="J16">
-        <v>0.204</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12016,10 +12016,10 @@
         <v>-0.03</v>
       </c>
       <c r="I17">
-        <v>-0.916</v>
+        <v>-0.779</v>
       </c>
       <c r="J17">
-        <v>0.362</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12048,10 +12048,10 @@
         <v>0.044</v>
       </c>
       <c r="I18">
-        <v>1.17</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J18">
-        <v>0.244</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12080,10 +12080,10 @@
         <v>0.014</v>
       </c>
       <c r="I19">
-        <v>0.337</v>
+        <v>0.252</v>
       </c>
       <c r="J19">
-        <v>0.736</v>
+        <v>0.801</v>
       </c>
     </row>
   </sheetData>
@@ -12169,10 +12169,10 @@
         <v>-6.656</v>
       </c>
       <c r="I2">
-        <v>-1.111</v>
+        <v>-1.353</v>
       </c>
       <c r="J2">
-        <v>0.269</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12201,10 +12201,10 @@
         <v>1.622</v>
       </c>
       <c r="I3">
-        <v>0.346</v>
+        <v>0.225</v>
       </c>
       <c r="J3">
-        <v>0.73</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12233,10 +12233,10 @@
         <v>2.353</v>
       </c>
       <c r="I4">
-        <v>0.37</v>
+        <v>0.338</v>
       </c>
       <c r="J4">
-        <v>0.712</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12265,10 +12265,10 @@
         <v>-0.875</v>
       </c>
       <c r="I5">
-        <v>-0.143</v>
+        <v>-0.115</v>
       </c>
       <c r="J5">
-        <v>0.886</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12297,10 +12297,10 @@
         <v>3.295</v>
       </c>
       <c r="I6">
-        <v>0.534</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="J6">
-        <v>0.595</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12329,10 +12329,10 @@
         <v>-11.759</v>
       </c>
       <c r="I7">
-        <v>-1.644</v>
+        <v>-1.886</v>
       </c>
       <c r="J7">
-        <v>0.103</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12361,10 +12361,10 @@
         <v>2.595</v>
       </c>
       <c r="I8">
-        <v>1.035</v>
+        <v>1.021</v>
       </c>
       <c r="J8">
-        <v>0.303</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12393,10 +12393,10 @@
         <v>0.9409999999999999</v>
       </c>
       <c r="I9">
-        <v>0.441</v>
+        <v>0.275</v>
       </c>
       <c r="J9">
-        <v>0.66</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12425,10 +12425,10 @@
         <v>-1.383</v>
       </c>
       <c r="I10">
-        <v>-0.515</v>
+        <v>-0.5</v>
       </c>
       <c r="J10">
-        <v>0.607</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12457,10 +12457,10 @@
         <v>-0.724</v>
       </c>
       <c r="I11">
-        <v>-0.269</v>
+        <v>-0.238</v>
       </c>
       <c r="J11">
-        <v>0.788</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12489,10 +12489,10 @@
         <v>-0.246</v>
       </c>
       <c r="I12">
-        <v>-0.096</v>
+        <v>-0.089</v>
       </c>
       <c r="J12">
-        <v>0.924</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12521,10 +12521,10 @@
         <v>4.79</v>
       </c>
       <c r="I13">
-        <v>1.75</v>
+        <v>1.965</v>
       </c>
       <c r="J13">
-        <v>0.083</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12553,10 +12553,10 @@
         <v>-0.032</v>
       </c>
       <c r="I14">
-        <v>-1.025</v>
+        <v>-1.382</v>
       </c>
       <c r="J14">
-        <v>0.308</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12585,10 +12585,10 @@
         <v>-0.032</v>
       </c>
       <c r="I15">
-        <v>-0.873</v>
+        <v>-0.931</v>
       </c>
       <c r="J15">
-        <v>0.385</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12617,10 +12617,10 @@
         <v>0.044</v>
       </c>
       <c r="I16">
-        <v>1.119</v>
+        <v>1.293</v>
       </c>
       <c r="J16">
-        <v>0.265</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12649,10 +12649,10 @@
         <v>-0.032</v>
       </c>
       <c r="I17">
-        <v>-0.786</v>
+        <v>-0.84</v>
       </c>
       <c r="J17">
-        <v>0.434</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12681,10 +12681,10 @@
         <v>0.035</v>
       </c>
       <c r="I18">
-        <v>0.764</v>
+        <v>0.655</v>
       </c>
       <c r="J18">
-        <v>0.446</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12713,10 +12713,10 @@
         <v>0.023</v>
       </c>
       <c r="I19">
-        <v>0.446</v>
+        <v>0.39</v>
       </c>
       <c r="J19">
-        <v>0.657</v>
+        <v>0.697</v>
       </c>
     </row>
   </sheetData>
@@ -12809,10 +12809,10 @@
         <v>-3.491</v>
       </c>
       <c r="J2">
-        <v>-0.522</v>
+        <v>-0.577</v>
       </c>
       <c r="K2">
-        <v>0.603</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12844,10 +12844,10 @@
         <v>1.764</v>
       </c>
       <c r="J3">
-        <v>0.339</v>
+        <v>0.229</v>
       </c>
       <c r="K3">
-        <v>0.735</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -12879,10 +12879,10 @@
         <v>6.162</v>
       </c>
       <c r="J4">
-        <v>0.876</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="K4">
-        <v>0.383</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -12914,10 +12914,10 @@
         <v>3.346</v>
       </c>
       <c r="J5">
-        <v>0.494</v>
+        <v>0.466</v>
       </c>
       <c r="K5">
-        <v>0.622</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -12949,10 +12949,10 @@
         <v>5.987</v>
       </c>
       <c r="J6">
-        <v>0.875</v>
+        <v>0.889</v>
       </c>
       <c r="K6">
-        <v>0.383</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -12984,10 +12984,10 @@
         <v>-9.476000000000001</v>
       </c>
       <c r="J7">
-        <v>-1.186</v>
+        <v>-1.54</v>
       </c>
       <c r="K7">
-        <v>0.238</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13019,10 +13019,10 @@
         <v>0.845</v>
       </c>
       <c r="J8">
-        <v>0.302</v>
+        <v>0.301</v>
       </c>
       <c r="K8">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13054,10 +13054,10 @@
         <v>1.208</v>
       </c>
       <c r="J9">
-        <v>0.51</v>
+        <v>0.351</v>
       </c>
       <c r="K9">
-        <v>0.611</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13089,10 +13089,10 @@
         <v>-3.434</v>
       </c>
       <c r="J10">
-        <v>-1.157</v>
+        <v>-1.164</v>
       </c>
       <c r="K10">
-        <v>0.25</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13124,10 +13124,10 @@
         <v>-2.525</v>
       </c>
       <c r="J11">
-        <v>-0.847</v>
+        <v>-0.824</v>
       </c>
       <c r="K11">
-        <v>0.399</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13159,10 +13159,10 @@
         <v>-1.619</v>
       </c>
       <c r="J12">
-        <v>-0.569</v>
+        <v>-0.545</v>
       </c>
       <c r="K12">
-        <v>0.57</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13194,10 +13194,10 @@
         <v>3.49</v>
       </c>
       <c r="J13">
-        <v>1.139</v>
+        <v>1.405</v>
       </c>
       <c r="K13">
-        <v>0.257</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13229,10 +13229,10 @@
         <v>-0</v>
       </c>
       <c r="J14">
-        <v>-0.005</v>
+        <v>-0.008</v>
       </c>
       <c r="K14">
-        <v>0.996</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13264,10 +13264,10 @@
         <v>-0.025</v>
       </c>
       <c r="J15">
-        <v>-0.625</v>
+        <v>-0.8090000000000001</v>
       </c>
       <c r="K15">
-        <v>0.534</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13299,10 +13299,10 @@
         <v>0.047</v>
       </c>
       <c r="J16">
-        <v>1.067</v>
+        <v>1.297</v>
       </c>
       <c r="K16">
-        <v>0.288</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13334,10 +13334,10 @@
         <v>-0.035</v>
       </c>
       <c r="J17">
-        <v>-0.778</v>
+        <v>-0.8149999999999999</v>
       </c>
       <c r="K17">
-        <v>0.438</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13369,10 +13369,10 @@
         <v>0.016</v>
       </c>
       <c r="J18">
-        <v>0.322</v>
+        <v>0.307</v>
       </c>
       <c r="K18">
-        <v>0.748</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13404,10 +13404,10 @@
         <v>-0.018</v>
       </c>
       <c r="J19">
-        <v>-0.321</v>
+        <v>-0.3</v>
       </c>
       <c r="K19">
-        <v>0.749</v>
+        <v>0.764</v>
       </c>
     </row>
   </sheetData>
@@ -13486,10 +13486,10 @@
         <v>-9.013999999999999</v>
       </c>
       <c r="H2">
-        <v>-1.872</v>
+        <v>-1.97</v>
       </c>
       <c r="I2">
-        <v>0.065</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -13515,10 +13515,10 @@
         <v>-2.353</v>
       </c>
       <c r="H3">
-        <v>-0.658</v>
+        <v>-0.604</v>
       </c>
       <c r="I3">
-        <v>0.513</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13544,10 +13544,10 @@
         <v>-7.939</v>
       </c>
       <c r="H4">
-        <v>-1.62</v>
+        <v>-1.267</v>
       </c>
       <c r="I4">
-        <v>0.109</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13573,10 +13573,10 @@
         <v>2.106</v>
       </c>
       <c r="H5">
-        <v>0.432</v>
+        <v>0.317</v>
       </c>
       <c r="I5">
-        <v>0.667</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -13602,10 +13602,10 @@
         <v>6.859</v>
       </c>
       <c r="H6">
-        <v>1.419</v>
+        <v>1.298</v>
       </c>
       <c r="I6">
-        <v>0.16</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13631,10 +13631,10 @@
         <v>-5.31</v>
       </c>
       <c r="H7">
-        <v>-0.895</v>
+        <v>-0.866</v>
       </c>
       <c r="I7">
-        <v>0.373</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13660,10 +13660,10 @@
         <v>4.157</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>2.092</v>
       </c>
       <c r="I8">
-        <v>0.049</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13689,10 +13689,10 @@
         <v>1.679</v>
       </c>
       <c r="H9">
-        <v>0.998</v>
+        <v>0.851</v>
       </c>
       <c r="I9">
-        <v>0.321</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13718,10 +13718,10 @@
         <v>3.292</v>
       </c>
       <c r="H10">
-        <v>1.534</v>
+        <v>1.221</v>
       </c>
       <c r="I10">
-        <v>0.129</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13747,10 +13747,10 @@
         <v>-1.519</v>
       </c>
       <c r="H11">
-        <v>-0.6929999999999999</v>
+        <v>-0.556</v>
       </c>
       <c r="I11">
-        <v>0.49</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -13776,10 +13776,10 @@
         <v>-2.224</v>
       </c>
       <c r="H12">
-        <v>-1.069</v>
+        <v>-0.98</v>
       </c>
       <c r="I12">
-        <v>0.288</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -13805,10 +13805,10 @@
         <v>2.618</v>
       </c>
       <c r="H13">
-        <v>1.142</v>
+        <v>1.225</v>
       </c>
       <c r="I13">
-        <v>0.257</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13834,10 +13834,10 @@
         <v>-0.029</v>
       </c>
       <c r="H14">
-        <v>-1.175</v>
+        <v>-1.256</v>
       </c>
       <c r="I14">
-        <v>0.244</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13863,10 +13863,10 @@
         <v>-0.025</v>
       </c>
       <c r="H15">
-        <v>-0.846</v>
+        <v>-0.753</v>
       </c>
       <c r="I15">
-        <v>0.4</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -13892,10 +13892,10 @@
         <v>-0.03</v>
       </c>
       <c r="H16">
-        <v>-0.955</v>
+        <v>-0.833</v>
       </c>
       <c r="I16">
-        <v>0.343</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -13921,10 +13921,10 @@
         <v>-0.035</v>
       </c>
       <c r="H17">
-        <v>-1.093</v>
+        <v>-1.032</v>
       </c>
       <c r="I17">
-        <v>0.277</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -13950,10 +13950,10 @@
         <v>0.006</v>
       </c>
       <c r="H18">
-        <v>0.145</v>
+        <v>0.112</v>
       </c>
       <c r="I18">
-        <v>0.885</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -13979,10 +13979,10 @@
         <v>-0.057</v>
       </c>
       <c r="H19">
-        <v>-1.379</v>
+        <v>-1.289</v>
       </c>
       <c r="I19">
-        <v>0.172</v>
+        <v>0.197</v>
       </c>
     </row>
   </sheetData>
